--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801725.667897396</v>
+        <v>2799838.086380993</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>540631.4633283878</v>
+        <v>745058.5218411195</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>223.8326268318948</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>109.1530462869109</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>28.51033041214341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>6.596015618368514</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>118.4077773504827</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>93.47079622669342</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.6064608052457</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>81.31357411831698</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>138.3038958997682</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>164.3675597136118</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>62.74236544294411</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>145.9781643606183</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>143.1717943654792</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>191.6534898356754</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532056</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>192.7521565297398</v>
+        <v>9.428967724692431</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>11.77373557727632</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>215.6214853475421</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>73.19337109394347</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180119</v>
+        <v>1.599126004631017</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437398</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897886</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571471</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523552</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692741</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463045</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>1915.737096240334</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1915.737096240334</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1557.471397633583</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1171.683145035339</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>760.6972402457313</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>2137.052644524937</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.586886263858</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y2" t="n">
-        <v>1763.586886263858</v>
+        <v>2302.336936304455</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.6822058285749</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4525,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>699.3306706588146</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>699.3306706588146</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.3306706588146</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.527073573122</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.56455663271</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>977.29885802596</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>591.5106054277157</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573122</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.2710210862863</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>296.2710210862863</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>296.2710210862863</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>148.3579275038932</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.919485916526</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>560.9872140232164</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>150.0013092336089</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>136.0779051721998</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.607341885688</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2107.607341885688</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2107.607341885688</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,43 +4887,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.765035414674</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.5932181703304</v>
+        <v>263.2449295548432</v>
       </c>
       <c r="C13" t="n">
-        <v>160.5932181703304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>160.5932181703304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>160.5932181703304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>160.5932181703304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>160.5932181703304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488384</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W13" t="n">
-        <v>609.3753482118778</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X13" t="n">
-        <v>381.3857973138605</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="Y13" t="n">
-        <v>160.5932181703304</v>
+        <v>444.893394385083</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,22 +5288,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N15" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1351.46357928455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1062.334940498108</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>807.6504522922215</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>807.6504522922215</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>579.6609013942042</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,22 +5595,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1243.223193013183</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1019.437777802689</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>730.3091390162469</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>475.6246508103599</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>475.6246508103599</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,64 +5738,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1305.326886885503</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1016.198248099061</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V22" t="n">
-        <v>761.5137598931741</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W22" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5975,31 +5975,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>629.3975440735812</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.1954542207689</v>
+        <v>524.5778132641558</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207689</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207689</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383758</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404655</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,13 +6163,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
@@ -6178,19 +6178,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1104.297112463616</v>
+        <v>1289.472050650533</v>
       </c>
       <c r="V25" t="n">
-        <v>849.6126242577295</v>
+        <v>1034.787562444646</v>
       </c>
       <c r="W25" t="n">
-        <v>560.1954542207689</v>
+        <v>745.3703924076859</v>
       </c>
       <c r="X25" t="n">
-        <v>560.1954542207689</v>
+        <v>745.3703924076859</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.1954542207689</v>
+        <v>524.5778132641558</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>576.0756695821906</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>407.1394866542837</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>257.022847241948</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>109.1097536595549</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>109.1097536595549</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>109.1097536595549</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,19 +6388,19 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765185</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>568.2827263274861</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>278.8655562905255</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.4517433652493</v>
+        <v>604.5641438163776</v>
       </c>
       <c r="C31" t="n">
-        <v>617.2764257187133</v>
+        <v>491.3888261698415</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440229</v>
+        <v>397.0330520388765</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430008</v>
+        <v>395.4177732463199</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264615</v>
+        <v>304.2886910297804</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667515</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818956</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652493</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652493</v>
+        <v>730.4517433652466</v>
       </c>
     </row>
     <row r="32">
@@ -6677,13 +6677,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
@@ -6695,7 +6695,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6707,7 +6707,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,25 +6719,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982964</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
         <v>1819.161927111988</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7409,16 +7409,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619129</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859416</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,16 +8781,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9027,7 +9027,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,10 +9729,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>2.879261385016008</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>86.17146292459202</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>75.569396697771</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>54.74901561812404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>29.89407122271381</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.39383318338542</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>93.48519586883761</v>
+        <v>276.8083846738849</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>137.1400927902598</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>36.51615797628591</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>20.21884529571162</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>89.6315800133811</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>8.881784197001252e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813644.2746905405</v>
+        <v>813644.2746905404</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="G2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="H2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065631</v>
-      </c>
       <c r="K2" t="n">
-        <v>610233.2060179057</v>
+        <v>610233.2060179055</v>
       </c>
       <c r="L2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="N2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="O2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="P2" t="n">
         <v>615781.3273982126</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615781.3273982125</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615781.3273982125</v>
-      </c>
-      <c r="O2" t="n">
-        <v>615781.3273982127</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615781.3273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284582</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086671</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284585</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477247</v>
+        <v>18952.4162047724</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.76906036</v>
+        <v>-196104.7690603604</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541839</v>
+        <v>393863.1101541842</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541847</v>
+        <v>393863.1101541838</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962602</v>
+        <v>-31489.0256355977</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672707</v>
+        <v>493671.010841298</v>
       </c>
       <c r="G6" t="n">
-        <v>493768.4699672704</v>
+        <v>493671.0108412984</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.4699672704</v>
+        <v>493671.0108412984</v>
       </c>
       <c r="I6" t="n">
-        <v>493768.4699672705</v>
+        <v>493671.0108412984</v>
       </c>
       <c r="J6" t="n">
-        <v>317345.2507746777</v>
+        <v>317247.7916487053</v>
       </c>
       <c r="K6" t="n">
-        <v>450489.9759800647</v>
+        <v>450471.4822421304</v>
       </c>
       <c r="L6" t="n">
-        <v>484516.7338454242</v>
+        <v>484516.7338454241</v>
       </c>
       <c r="M6" t="n">
         <v>360058.6254124536</v>
@@ -26558,10 +26558,10 @@
         <v>494859.6406462907</v>
       </c>
       <c r="O6" t="n">
-        <v>494859.640646291</v>
+        <v>494859.6406462905</v>
       </c>
       <c r="P6" t="n">
-        <v>450697.0353434449</v>
+        <v>450697.0353434453</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108338</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>189.9515431889002</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>240.0879224305021</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>258.0126679244476</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>211.9886377337263</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>288.4682683912287</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>51.95025179623782</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>102.1031945837915</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>242.6091986460402</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>189.4483625703667</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>96.44405126592677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.1499801833007</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.64757550068851e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-2.384319086127909e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29278,64 +29278,64 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31127,13 +31127,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>359.9147016846445</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>141.3402618185954</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,25 +32786,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>213.9849829127208</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32813,10 +32813,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,16 +32953,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
         <v>76.0697047810465</v>
@@ -33260,28 +33260,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>216.4869287318326</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,16 +34138,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>683.4857315126261</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>489.3409240788156</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>537.5560127407024</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043203</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>343.1107267700522</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
